--- a/src/main/resources/template/doc/sit_simple/画面定義書_モックアップデモ.xlsx
+++ b/src/main/resources/template/doc/sit_simple/画面定義書_モックアップデモ.xlsx
@@ -264,7 +264,7 @@
     <t>ユーザー姓</t>
   </si>
   <si>
-    <t>性</t>
+    <t>姓</t>
   </si>
   <si>
     <t>テキストボックス</t>
